--- a/past_problems_am/past_problems_am1.xlsx
+++ b/past_problems_am/past_problems_am1.xlsx
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\past_problems_am\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689FF3C6-B99A-46B1-89D7-36934C15E831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD84E2FF-8137-47C3-A88F-630062BF3B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-150" yWindow="0" windowWidth="14085" windowHeight="15585" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="4" r:id="rId1"/>
     <sheet name="17" sheetId="5" r:id="rId2"/>
     <sheet name="18" sheetId="1" r:id="rId3"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId4"/>
-    <sheet name="format" sheetId="3" r:id="rId5"/>
+    <sheet name="19" sheetId="6" r:id="rId4"/>
+    <sheet name="20" sheetId="7" r:id="rId5"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId6"/>
+    <sheet name="format" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'16'!$A$3:$F$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'17'!$A$3:$D$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'18'!$A$3:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'19'!$A$3:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20'!$A$3:$H$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="56">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -616,6 +620,282 @@
     <rPh sb="38" eb="39">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除の場合、先頭から末尾までのすべてのポインタをたどる必要がある</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックアップ復元→ロールフォワード実施→一番最新の保存状態に復帰</t>
+    <rPh sb="6" eb="8">
+      <t>フクゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスペクション＝責任者のもとで成果物をチェックするレビュー技法</t>
+    <rPh sb="9" eb="12">
+      <t>セキニンシャ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ギホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個々のプロジェクトのマネジメントの支援、プロジェクトマネージャのサポート</t>
+    <rPh sb="0" eb="2">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サービスに対する計画外の中断、サービス品質の低下があった場合、中断時間を最小限に抑えることを目指すプロセス</t>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ケイカクガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>チュウダンジカン</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長期にわらりクラウドサービスを利用可能か</t>
+    <rPh sb="0" eb="2">
+      <t>チョウキ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>リヨウカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRM=顧客関係管理手法。CMを向上させるために顧客との関係を構築する経営手法</t>
+    <rPh sb="4" eb="8">
+      <t>コキャクカンケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケイエイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムを効果的に実行できるようにするための改変は著作憲法でOKとされている</t>
+    <rPh sb="6" eb="9">
+      <t>コウカテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイヘン</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>チョサクケンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト相互関係をマネジメントし、組織内の共有資源の仕様を最適化する</t>
+    <rPh sb="6" eb="10">
+      <t>ソウゴカンケイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ソシキナイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbとdが区別がつかないためNG</t>
+    <rPh sb="5" eb="7">
+      <t>クベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bankを複数に分けて、読み書きを平行で進めることで高速化</t>
+    <rPh sb="5" eb="7">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>コウソクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンソリでーしょんは仮想化技術により複数サーバーに分割していた機能を１台にまとめること</t>
+    <rPh sb="10" eb="15">
+      <t>カソウカギジュツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMAPSはIMAPにTLSを用いて、TLSにより暗号化された通信コネクションでメール受信を行うプロトコル</t>
+    <rPh sb="15" eb="16">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクティビティ図は制御フローのような一連の手続きを可視化する図</t>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチレン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>カシカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -647,12 +927,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -668,10 +954,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1554,7 +1841,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -2744,11 +3031,1083 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5736D2E-9F69-4476-8893-644114073E3A}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45535</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C33)/30*100)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1">
+      <c r="A6">
+        <f t="shared" ref="A6:A33" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:D33" xr:uid="{C5736D2E-9F69-4476-8893-644114073E3A}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B37:B46" xr:uid="{D1B94BD0-B2D8-45F2-A446-2FA9143D8F3B}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E74E43-C2BF-48F1-BAED-EF7EEBAA8AB1}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2">
+        <f>INT(SUM(C4:C33)/30*100)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <f t="shared" ref="A6:A33" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>2066/2160</f>
+        <v>0.95648148148148149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:H33" xr:uid="{87E74E43-C2BF-48F1-BAED-EF7EEBAA8AB1}"/>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B38:B42" xr:uid="{8C25D4DB-3469-4EDF-8EF7-52F28292EB5E}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2803,6 +4162,28 @@
       </c>
       <c r="D7">
         <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>2019</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +4195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D33"/>
   <sheetViews>

--- a/past_problems_am/past_problems_am1.xlsx
+++ b/past_problems_am/past_problems_am1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\past_problems_am\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD84E2FF-8137-47C3-A88F-630062BF3B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A4EE97-6139-4834-8F31-DAAB902EAA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="0" windowWidth="14085" windowHeight="15585" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12870" yWindow="0" windowWidth="15675" windowHeight="15585" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="18" sheetId="1" r:id="rId3"/>
     <sheet name="19" sheetId="6" r:id="rId4"/>
     <sheet name="20" sheetId="7" r:id="rId5"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId6"/>
-    <sheet name="format" sheetId="3" r:id="rId7"/>
+    <sheet name="21" sheetId="8" r:id="rId6"/>
+    <sheet name="22" sheetId="9" r:id="rId7"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId8"/>
+    <sheet name="format" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'16'!$A$3:$F$33</definedName>
@@ -27,6 +29,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'18'!$A$3:$F$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'19'!$A$3:$D$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20'!$A$3:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'21'!$A$3:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'22'!$A$3:$J$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="74">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -896,6 +900,318 @@
   </si>
   <si>
     <t>review</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムを構成するサーバーの代数を減らすことでリソースを最適化し、コスト削減する</t>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>サイテキカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２方向にパリティを深するのが水平パリティ</t>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スイヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スラッシング＝ページング処理の多発により処理効率が低下する現象</t>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タハツ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ショリコウリツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティバイデザインを基本原則として明確化するもの</t>
+    <rPh sb="13" eb="17">
+      <t>キホンゲンソク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>メイカクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行った操作を後になって避妊されないように証明する能力</t>
+    <rPh sb="0" eb="1">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウメイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦軸に残作業量、横軸に時間をとった折れ線</t>
+    <rPh sb="0" eb="2">
+      <t>タテジク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ザンサギョウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨコジク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスクの大きさを金額で表す手法</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題を特定するためにインシデントのデータおよび傾向を分析する</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業がシステム調達依頼する場合に情報の提供を依頼すること</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウタツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリューチェーン＝リソースの効率を上げて競争優位性を確立する</t>
+    <rPh sb="14" eb="16">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="25">
+      <t>キョウソウユウイセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストに入れられる要素のマックスに対応した領域を確保→実際に使わない領域が発生</t>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一正規＝すべての属性が単一。第２正規＝主キーに部分関数従属</t>
+    <rPh sb="0" eb="2">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ブブンカンスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュウゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リバースプロキシサーバーが中継</t>
+    <rPh sb="13" eb="15">
+      <t>チュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引き渡し後のパフォーマンスを向上させる修正</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPO=業務のアウトソーシングプラン</t>
+    <rPh sb="4" eb="6">
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PBP＝投資した資金をどれだけの期間で回収できるか</t>
+    <rPh sb="4" eb="6">
+      <t>トウシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扱うのは企業の財務情報</t>
+    <rPh sb="0" eb="1">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザイム</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4103,11 +4419,1283 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242A8D4F-A27D-44B8-A3A3-E8E1A1B214A4}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45542</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C33)/30*100)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1">
+      <c r="A6">
+        <f t="shared" ref="A6:A33" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:D33" xr:uid="{242A8D4F-A27D-44B8-A3A3-E8E1A1B214A4}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B38:B48" xr:uid="{50509C4C-A680-4485-930A-6C47F1806812}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05508C5C-764A-4748-9BF7-5EFBE996F2AD}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2">
+        <f>INT(SUM(C4:C33)/30*100)</f>
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <f>INT(SUM(I4:I33)/30*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1">
+      <c r="A6">
+        <f t="shared" ref="A6:A33" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G33" si="1">G5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>28</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:J33" xr:uid="{05508C5C-764A-4748-9BF7-5EFBE996F2AD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 H4:H33 B38:B46" xr:uid="{5FB8F54F-4170-4139-AB6A-8AFC11267E6D}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4195,7 +5783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D33"/>
   <sheetViews>

--- a/past_problems_am/past_problems_am1.xlsx
+++ b/past_problems_am/past_problems_am1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\past_problems_am\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A4EE97-6139-4834-8F31-DAAB902EAA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A4D823-5931-4C33-8128-78F82760DE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="0" windowWidth="15675" windowHeight="15585" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="4" r:id="rId1"/>
@@ -20,17 +20,19 @@
     <sheet name="20" sheetId="7" r:id="rId5"/>
     <sheet name="21" sheetId="8" r:id="rId6"/>
     <sheet name="22" sheetId="9" r:id="rId7"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId8"/>
-    <sheet name="format" sheetId="3" r:id="rId9"/>
+    <sheet name="23" sheetId="10" r:id="rId8"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId9"/>
+    <sheet name="format" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'16'!$A$3:$F$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'17'!$A$3:$D$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'18'!$A$3:$F$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'19'!$A$3:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'18'!$A$3:$J$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'19'!$A$3:$J$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20'!$A$3:$H$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'21'!$A$3:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'21'!$A$3:$J$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'22'!$A$3:$J$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'23'!$A$3:$J$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="100">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -123,13 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年</t>
-    <rPh sb="0" eb="1">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>時期</t>
     <rPh sb="0" eb="2">
       <t>ジキ</t>
@@ -137,13 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>得点</t>
-    <rPh sb="0" eb="2">
-      <t>トクテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未整列データを大小関係を持つ順序木として表現し、整列後の根を取り出すことを繰り返し行う整列法</t>
     <rPh sb="0" eb="3">
       <t>ミセイレツ</t>
@@ -1211,6 +1199,493 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きな問題を分割して、個々の問題の解を統治することで、大きな問題の解決をはかる手法</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウチ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトバック＝メインメモリへの書き込みはキャッシュからデータが追い出されたときのみという手法</t>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページフォルト＝ページが存在しない場合の割り込み、ページアウト＝メモリのページを仮想記憶に移動させる、ページイン＝仮想記憶のページをメモリに移動</t>
+    <rPh sb="12" eb="14">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>カソウキオク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>カソウキオク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RFID=電磁界や電波により情報のやり取りを行う</t>
+    <rPh sb="5" eb="8">
+      <t>デンジカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デンパ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データレイク＝データを規模にかかわらずためておく</t>
+    <rPh sb="11" eb="13">
+      <t>キボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPCERT=インターネットを介して発生する侵入や妨害等のインシデントについて、対応の支援を行う</t>
+    <rPh sb="15" eb="16">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ボウガイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低３つ</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画フェーズ＝統合、スコープ、ステークホルダ、リソース</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BSは財務、顧客、内部プロセス、学習と成長。企業のビジョンと戦略を実現する手法</t>
+    <rPh sb="3" eb="5">
+      <t>ザイム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数企業が提供するオンランサービスを集約し、データを一括して比較・表示できるようにしたサービス</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウヤク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルータ経由でホストBにパケットsend。</t>
+    <rPh sb="3" eb="5">
+      <t>ケイユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常とは異なる環境からの認証要求があった場合、通常に追加の認証を実施する方式</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェールセーフ＝障害が起きても、被害を最小限に抑える</t>
+    <rPh sb="8" eb="10">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数プロジェクトの最適化を行い、全体最適に導く活動</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サイテキカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミチビ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープンイノベーション＝異業種の企業間における組織間の結合より新たな価値を想像する取り組み</t>
+    <rPh sb="12" eb="15">
+      <t>イギョウシュ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>キギョウカン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ソシキカン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カチ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウゾウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル上に現実的な世界をリアルタイムに再現すること</t>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ゲンジツテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMSにおけるPDCA。D：サービスの設計、以降、改善のためSMSを導入する</t>
+    <rPh sb="19" eb="21">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコープ＝プロジェクトの成果物を作成するうえで行わなければならない全作業</t>
+    <rPh sb="12" eb="15">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ゼンサギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMS=電子機器の設計から製造までを専門業者に委託するサービスや企業のこと</t>
+    <rPh sb="4" eb="8">
+      <t>デンシキキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>センモンギョウシャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イタク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <rPh sb="0" eb="2">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>午前1</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース過剰な時にサーバーのリソースを減らし、無駄を削減する</t>
+    <rPh sb="4" eb="6">
+      <t>カジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロビジョニング（Provisioning）とは、「供給」や「提供」を意味する英語です。IT、特に通信の分野でプロビジョニングと言われる場合、サーバーやネットワークなどのITインフラストラクチャを必要に応じて利用できるように準備することを指します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期的にレビューしなくてはならない</t>
+    <rPh sb="0" eb="3">
+      <t>テイキテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雇用と福祉の増紙</t>
+    <rPh sb="0" eb="2">
+      <t>コヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゾウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散サービスを集約したもの</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じネットワークに対して同時通信</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ドウジツウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1219,7 +1694,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,8 +1717,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,6 +1735,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,11 +1758,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1634,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1649,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1">
@@ -1700,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1">
@@ -1727,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" hidden="1">
@@ -1742,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1757,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1772,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1">
@@ -1823,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1">
@@ -1898,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1">
@@ -1913,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1928,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1">
@@ -1955,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2065,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2145,6 +2635,235 @@
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B38:B51" xr:uid="{35640CD0-247F-4229-8FBC-6A1BC9A5CB36}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C33)/30*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A33" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{99518225-CF94-4EDB-B4F9-CC0276E728F0}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2220,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1">
@@ -2271,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1">
@@ -2346,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1">
@@ -2373,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1">
@@ -2400,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2415,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2430,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2445,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1">
@@ -2508,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" hidden="1">
@@ -2547,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2562,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" hidden="1">
@@ -2763,10 +3482,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2774,21 +3493,31 @@
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>45521</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="C2">
         <f>INT(SUM(C4:C33)/30*100)</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="I2">
+        <f>INT(SUM(I4:I33)/30*100)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2801,8 +3530,20 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2812,8 +3553,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -2827,8 +3577,18 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>3</v>
@@ -2839,8 +3599,18 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" ref="G6:G33" si="1">G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2851,8 +3621,18 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2863,8 +3643,18 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2875,8 +3665,18 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2887,8 +3687,18 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2899,8 +3709,18 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2911,8 +3731,18 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2923,8 +3753,18 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2935,8 +3775,18 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2947,8 +3797,18 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2959,8 +3819,18 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2971,8 +3841,18 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2983,8 +3863,18 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2995,8 +3885,18 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3007,8 +3907,18 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3019,8 +3929,21 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3031,8 +3954,21 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3043,8 +3979,18 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3055,8 +4001,18 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3067,8 +4023,18 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3079,8 +4045,18 @@
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3091,8 +4067,21 @@
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3103,8 +4092,18 @@
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3115,8 +4114,18 @@
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3127,8 +4136,18 @@
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3139,8 +4158,18 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3151,8 +4180,18 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3163,13 +4202,23 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -3179,8 +4228,17 @@
       <c r="C37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3190,8 +4248,17 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>5</v>
       </c>
@@ -3201,8 +4268,17 @@
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>7</v>
       </c>
@@ -3212,8 +4288,17 @@
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>8</v>
       </c>
@@ -3223,8 +4308,17 @@
       <c r="C41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>10</v>
       </c>
@@ -3234,8 +4328,17 @@
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="G42">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>13</v>
       </c>
@@ -3245,8 +4348,17 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="G43">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>15</v>
       </c>
@@ -3256,8 +4368,17 @@
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="G44">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>17</v>
       </c>
@@ -3267,8 +4388,17 @@
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="G45">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>18</v>
       </c>
@@ -3278,8 +4408,17 @@
       <c r="C46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>19</v>
       </c>
@@ -3290,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>21</v>
       </c>
@@ -3335,10 +4474,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F33" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:J33" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B38:B51" xr:uid="{F5F9245F-B5F3-43FA-A04A-738D0F0FB1D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B38:B51 H4:H33 H38:H46" xr:uid="{F5F9245F-B5F3-43FA-A04A-738D0F0FB1D1}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3349,10 +4488,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5736D2E-9F69-4476-8893-644114073E3A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3360,7 +4499,7 @@
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3370,14 +4509,21 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="C2">
         <f>INT(SUM(C4:C33)/30*100)</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="I2">
+        <f>INT(SUM(I4:I33)/30*100)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3390,8 +4536,20 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3401,8 +4559,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -3413,8 +4580,18 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1">
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>3</v>
@@ -3425,8 +4602,18 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6">
+        <f t="shared" ref="G6:G33" si="1">G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3438,343 +4625,631 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <f t="shared" si="0"/>
+      <c r="G33">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -3784,8 +5259,17 @@
       <c r="C36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3795,8 +5279,17 @@
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>9</v>
       </c>
@@ -3806,8 +5299,17 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="3">
         <v>16</v>
       </c>
@@ -3817,8 +5319,17 @@
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>17</v>
       </c>
@@ -3828,8 +5339,17 @@
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3">
         <v>18</v>
       </c>
@@ -3840,10 +5360,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>20</v>
       </c>
@@ -3853,8 +5382,17 @@
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="G42">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>21</v>
       </c>
@@ -3864,8 +5402,17 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="G43">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>24</v>
       </c>
@@ -3875,8 +5422,17 @@
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="G44">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>27</v>
       </c>
@@ -3887,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>30</v>
       </c>
@@ -3899,8 +5455,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D33" xr:uid="{C5736D2E-9F69-4476-8893-644114073E3A}">
-    <filterColumn colId="2">
+  <autoFilter ref="A3:J33" xr:uid="{C5736D2E-9F69-4476-8893-644114073E3A}">
+    <filterColumn colId="8">
       <filters>
         <filter val="0"/>
       </filters>
@@ -3908,7 +5464,7 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B37:B46" xr:uid="{D1B94BD0-B2D8-45F2-A446-2FA9143D8F3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B37:B46 H4:H33 H37:H44" xr:uid="{D1B94BD0-B2D8-45F2-A446-2FA9143D8F3B}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3980,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4007,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4022,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4149,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4164,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4337,7 +5893,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4421,10 +5977,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242A8D4F-A27D-44B8-A3A3-E8E1A1B214A4}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4432,7 +5988,7 @@
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4443,13 +5999,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="C2">
         <f>INT(SUM(C4:C33)/30*100)</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="I2">
+        <f>INT(SUM(I4:I33)/30*100)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4462,8 +6022,20 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4473,8 +6045,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -4486,10 +6067,20 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1">
+        <v>55</v>
+      </c>
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6">
         <f t="shared" ref="A6:A33" si="0">A5+1</f>
         <v>3</v>
@@ -4500,8 +6091,21 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1">
+      <c r="G6">
+        <f t="shared" ref="G6:G33" si="1">G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4512,8 +6116,21 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4525,286 +6142,524 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <f t="shared" si="0"/>
+      <c r="G9">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <f t="shared" si="0"/>
+      <c r="G29">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1">
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4815,8 +6670,18 @@
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4827,8 +6692,21 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4839,8 +6717,21 @@
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4851,8 +6742,18 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -4862,8 +6763,17 @@
       <c r="C37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>2</v>
       </c>
@@ -4873,8 +6783,17 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>5</v>
       </c>
@@ -4884,8 +6803,17 @@
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>6</v>
       </c>
@@ -4895,8 +6823,17 @@
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>12</v>
       </c>
@@ -4906,8 +6843,17 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>13</v>
       </c>
@@ -4917,8 +6863,17 @@
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>18</v>
       </c>
@@ -4928,8 +6883,17 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="G43">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>19</v>
       </c>
@@ -4939,8 +6903,17 @@
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="G44">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>20</v>
       </c>
@@ -4950,8 +6923,17 @@
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="G45">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>25</v>
       </c>
@@ -4961,8 +6943,17 @@
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="G46">
+        <v>29</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>26</v>
       </c>
@@ -4973,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>30</v>
       </c>
@@ -4985,8 +6976,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D33" xr:uid="{242A8D4F-A27D-44B8-A3A3-E8E1A1B214A4}">
-    <filterColumn colId="2">
+  <autoFilter ref="A3:J33" xr:uid="{242A8D4F-A27D-44B8-A3A3-E8E1A1B214A4}">
+    <filterColumn colId="8">
       <filters>
         <filter val="0"/>
       </filters>
@@ -4994,7 +6985,7 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B38:B48" xr:uid="{50509C4C-A680-4485-930A-6C47F1806812}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B38:B48 H4:H33 H38:H46" xr:uid="{50509C4C-A680-4485-930A-6C47F1806812}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5007,7 +6998,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -5024,7 +7015,7 @@
         <v>45549</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5089,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <f>G4+1</f>
@@ -5188,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
@@ -5271,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -5338,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
@@ -5437,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
@@ -5456,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
@@ -5523,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
@@ -5691,11 +7682,966 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C737D65-E5E9-44D8-B52B-44DE822F233C}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2">
+        <f>INT(SUM(C4:C33)/30*100)</f>
+        <v>73</v>
+      </c>
+      <c r="I2">
+        <f>INT(SUM(I4:I33)/30*100)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1">
+      <c r="A6">
+        <f t="shared" ref="A6:A33" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G33" si="1">G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.5" hidden="1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="G47">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:J33" xr:uid="{4C737D65-E5E9-44D8-B52B-44DE822F233C}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B39:B46 H4:H33 H39:H48" xr:uid="{1CEB6502-72D9-458E-8C6E-6A3CED848551}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5710,13 +8656,13 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -5743,35 +8689,101 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
         <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>2021</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>2018</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5781,233 +8793,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="C2">
-        <f>INT(SUM(C4:C33)/30*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <f>A4+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <f t="shared" ref="A6:A33" si="0">A5+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{99518225-CF94-4EDB-B4F9-CC0276E728F0}">
-      <formula1>"ア,イ,ウ,エ"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/past_problems_am/past_problems_am1.xlsx
+++ b/past_problems_am/past_problems_am1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\past_problems_am\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A4D823-5931-4C33-8128-78F82760DE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D79ED7-5D85-430D-946E-884850C8C5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12825" yWindow="1770" windowWidth="12690" windowHeight="11295" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="4" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="21" sheetId="8" r:id="rId6"/>
     <sheet name="22" sheetId="9" r:id="rId7"/>
     <sheet name="23" sheetId="10" r:id="rId8"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId9"/>
-    <sheet name="format" sheetId="3" r:id="rId10"/>
+    <sheet name="24" sheetId="11" r:id="rId9"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId10"/>
+    <sheet name="format" sheetId="3" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'16'!$A$3:$F$33</definedName>
@@ -33,6 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'21'!$A$3:$J$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'22'!$A$3:$J$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'23'!$A$3:$J$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'24'!$A$3:$D$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="105">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -1686,6 +1688,74 @@
     </rPh>
     <rPh sb="12" eb="16">
       <t>ドウジツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォールト阿保いダンス＝システム障害発生を未然に防ぐ</t>
+    <rPh sb="5" eb="7">
+      <t>アボ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ミゼン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLの処理をひとまとまりとしてDBに格納した→CALLで呼び出して実行する</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品の脆弱性のリスク対応＝PSIRT</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EVM（Earned Value Management）とは、プロジェクトマネジメントにおいて進捗状況の把握・管理を行う手法の一つ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム開発・保守にかかわる管理</t>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2643,6 +2713,165 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>2016</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>2022</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>2017</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>2021</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>2018</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6107E2A7-C607-427C-827A-A8833D120E10}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -7686,7 +7915,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
@@ -8637,160 +8866,523 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40F430F-2111-4ADD-B935-CBD9BD42E85B}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C33)/30*100)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A33" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1">
+      <c r="A9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5">
-        <v>2018</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6">
-        <v>2016</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7">
-        <v>2022</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8">
-        <v>2017</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9">
-        <v>2019</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
-        <v>2020</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11">
-        <v>2021</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13">
-        <v>2021</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14">
-        <v>2019</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15">
-        <v>2018</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15">
-        <v>80</v>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:D33" xr:uid="{C40F430F-2111-4ADD-B935-CBD9BD42E85B}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6107E2A7-C607-427C-827A-A8833D120E10}"/>
-  </hyperlinks>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 B38:B44" xr:uid="{62AC2C6F-ABD8-4357-8E57-53233F988CBA}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>